--- a/Heart classification dataset.xlsx
+++ b/Heart classification dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20165263\PycharmProjects\excel-ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3F3A8-EA28-44E0-93AC-6616D878C915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5D987-1444-4F43-A01B-CDDC8A4CD642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,67 @@
     <sheet name="Sensitivity Report 1" sheetId="7" r:id="rId5"/>
     <sheet name="Limits Report 1" sheetId="8" r:id="rId6"/>
     <sheet name="Model training" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId8"/>
+    <sheet name="Neural net training" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$P$304</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Test!$A$1:$Q$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Train!$A$1:$Q$1</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Model training'!$W$4:$AJ$4</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Neural net training'!$P$8:$AC$10,'Neural net training'!$P$13:$R$13</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Model training'!$W$7</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Neural net training'!$N$17</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -95,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
   <si>
     <t>age</t>
   </si>
@@ -402,6 +429,39 @@
   <si>
     <t>p</t>
   </si>
+  <si>
+    <t>hidden layer weights</t>
+  </si>
+  <si>
+    <t>node 1</t>
+  </si>
+  <si>
+    <t>node 2</t>
+  </si>
+  <si>
+    <t>node 3</t>
+  </si>
+  <si>
+    <t>output node weights</t>
+  </si>
+  <si>
+    <t>gamma^T</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>sigma(X.beta).gamma</t>
+  </si>
+  <si>
+    <t>total loss</t>
+  </si>
+  <si>
+    <t>relu(X.beta)</t>
+  </si>
+  <si>
+    <t>x-ent loss</t>
+  </si>
 </sst>
 </file>
 
@@ -438,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -540,6 +606,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,6 +624,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>187835</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>149835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BEB66B-7DEA-4919-90ED-53FC76317E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17691100" y="901700"/>
+          <a:ext cx="16236825" cy="15438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33691,8 +33809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F614099-D773-4358-A647-1A52573968A6}">
   <dimension ref="A1:AJ184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47299,14 +47417,7019 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB474D2-53F9-438E-BC3C-CF05104A2B91}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="4.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="13"/>
+    <col min="10" max="10" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>Train!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" cm="1">
+        <f t="array" ref="B3:D184">MMULT(Train!B2:O183, TRANSPOSE(P8:AC10))</f>
+        <v>63</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>MAX(0,B3)</f>
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="0">MAX(0,C3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" cm="1">
+        <f t="array" ref="H3:H184">MMULT(E3:G184, TRANSPOSE(P13:R13))</f>
+        <v>-63</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3:I184">1/(1+EXP(-H3:H184))</f>
+        <v>4.3596100000630809E-28</v>
+      </c>
+      <c r="J3" s="14">
+        <f>-Train!P2 * LN(I3) - (1-Train!P2) * LN(1-I3)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>Train!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="1">MAX(0,B4)</f>
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="2">MAX(0,C4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="3">MAX(0,D4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>-37</v>
+      </c>
+      <c r="I4">
+        <v>8.5330476257440658E-17</v>
+      </c>
+      <c r="J4" s="14">
+        <f>-Train!P3 * LN(I4) - (1-Train!P3) * LN(1-I4)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>Train!A4</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I5">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J5" s="14">
+        <f>-Train!P4 * LN(I5) - (1-Train!P4) * LN(1-I5)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>Train!A5</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I6">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J6" s="14">
+        <f>-Train!P5 * LN(I6) - (1-Train!P5) * LN(1-I6)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>Train!A6</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I7">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J7" s="14">
+        <f>-Train!P6 * LN(I7) - (1-Train!P6) * LN(1-I7)</f>
+        <v>56</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" t="str">
+        <f>Train!B1</f>
+        <v>const</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>Train!C1</f>
+        <v>age</v>
+      </c>
+      <c r="R7" t="str">
+        <f>Train!D1</f>
+        <v>sex</v>
+      </c>
+      <c r="S7" t="str">
+        <f>Train!E1</f>
+        <v>cp</v>
+      </c>
+      <c r="T7" t="str">
+        <f>Train!F1</f>
+        <v>trestbps</v>
+      </c>
+      <c r="U7" t="str">
+        <f>Train!G1</f>
+        <v>chol</v>
+      </c>
+      <c r="V7" t="str">
+        <f>Train!H1</f>
+        <v>fbs</v>
+      </c>
+      <c r="W7" t="str">
+        <f>Train!I1</f>
+        <v>restecg</v>
+      </c>
+      <c r="X7" t="str">
+        <f>Train!J1</f>
+        <v>thalach</v>
+      </c>
+      <c r="Y7" t="str">
+        <f>Train!K1</f>
+        <v>exang</v>
+      </c>
+      <c r="Z7" t="str">
+        <f>Train!L1</f>
+        <v>oldpeak</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>Train!M1</f>
+        <v>slope</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>Train!N1</f>
+        <v>ca</v>
+      </c>
+      <c r="AC7" t="str">
+        <f>Train!O1</f>
+        <v>thal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>Train!A7</f>
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
+        <v>57</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I8">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J8" s="14">
+        <f>-Train!P7 * LN(I8) - (1-Train!P7) * LN(1-I8)</f>
+        <v>57</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>Train!A8</f>
+        <v>11</v>
+      </c>
+      <c r="B9" s="12">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I9">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J9" s="14">
+        <f>-Train!P8 * LN(I9) - (1-Train!P8) * LN(1-I9)</f>
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>Train!A9</f>
+        <v>12</v>
+      </c>
+      <c r="B10" s="12">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I10">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J10" s="14">
+        <f>-Train!P9 * LN(I10) - (1-Train!P9) * LN(1-I10)</f>
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>Train!A10</f>
+        <v>15</v>
+      </c>
+      <c r="B11" s="12">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I11">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J11" s="14">
+        <f>-Train!P10 * LN(I11) - (1-Train!P10) * LN(1-I11)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>Train!A11</f>
+        <v>16</v>
+      </c>
+      <c r="B12" s="12">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>-50</v>
+      </c>
+      <c r="I12">
+        <v>1.9287498479639181E-22</v>
+      </c>
+      <c r="J12" s="14">
+        <f>-Train!P11 * LN(I12) - (1-Train!P11) * LN(1-I12)</f>
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>Train!A12</f>
+        <v>17</v>
+      </c>
+      <c r="B13" s="12">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I13">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J13" s="14">
+        <f>-Train!P12 * LN(I13) - (1-Train!P12) * LN(1-I13)</f>
+        <v>58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>Train!A13</f>
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>69</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-69</v>
+      </c>
+      <c r="I14">
+        <v>1.0806392777072785E-30</v>
+      </c>
+      <c r="J14" s="14">
+        <f>-Train!P13 * LN(I14) - (1-Train!P13) * LN(1-I14)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>Train!A14</f>
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
+        <v>59</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I15">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J15" s="14">
+        <f>-Train!P14 * LN(I15) - (1-Train!P14) * LN(1-I15)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>Train!A15</f>
+        <v>22</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I16">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J16" s="14">
+        <f>-Train!P15 * LN(I16) - (1-Train!P15) * LN(1-I16)</f>
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>Train!A16</f>
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-40</v>
+      </c>
+      <c r="I17">
+        <v>4.2483542552915889E-18</v>
+      </c>
+      <c r="J17" s="14">
+        <f>-Train!P16 * LN(I17) - (1-Train!P16) * LN(1-I17)</f>
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <f>SUM(J:J)</f>
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>Train!A17</f>
+        <v>26</v>
+      </c>
+      <c r="B18" s="12">
+        <v>71</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>-71</v>
+      </c>
+      <c r="I18">
+        <v>1.4624862272512309E-31</v>
+      </c>
+      <c r="J18" s="14">
+        <f>-Train!P17 * LN(I18) - (1-Train!P17) * LN(1-I18)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>Train!A18</f>
+        <v>27</v>
+      </c>
+      <c r="B19" s="12">
+        <v>59</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I19">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J19" s="14">
+        <f>-Train!P18 * LN(I19) - (1-Train!P18) * LN(1-I19)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>Train!A19</f>
+        <v>30</v>
+      </c>
+      <c r="B20" s="12">
+        <v>53</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-53</v>
+      </c>
+      <c r="I20">
+        <v>9.6026800545086756E-24</v>
+      </c>
+      <c r="J20" s="14">
+        <f>-Train!P19 * LN(I20) - (1-Train!P19) * LN(1-I20)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>Train!A20</f>
+        <v>31</v>
+      </c>
+      <c r="B21" s="12">
+        <v>41</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-41</v>
+      </c>
+      <c r="I21">
+        <v>1.5628821893349888E-18</v>
+      </c>
+      <c r="J21" s="14">
+        <f>-Train!P20 * LN(I21) - (1-Train!P20) * LN(1-I21)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>Train!A21</f>
+        <v>32</v>
+      </c>
+      <c r="B22" s="12">
+        <v>65</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-65</v>
+      </c>
+      <c r="I22">
+        <v>5.9000905415970609E-29</v>
+      </c>
+      <c r="J22" s="14">
+        <f>-Train!P21 * LN(I22) - (1-Train!P21) * LN(1-I22)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>Train!A22</f>
+        <v>35</v>
+      </c>
+      <c r="B23" s="12">
+        <v>51</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I23">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J23" s="14">
+        <f>-Train!P22 * LN(I23) - (1-Train!P22) * LN(1-I23)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>Train!A23</f>
+        <v>36</v>
+      </c>
+      <c r="B24" s="12">
+        <v>46</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-46</v>
+      </c>
+      <c r="I24">
+        <v>1.0530617357553813E-20</v>
+      </c>
+      <c r="J24" s="14">
+        <f>-Train!P23 * LN(I24) - (1-Train!P23) * LN(1-I24)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>Train!A24</f>
+        <v>37</v>
+      </c>
+      <c r="B25" s="12">
+        <v>54</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I25">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J25" s="14">
+        <f>-Train!P24 * LN(I25) - (1-Train!P24) * LN(1-I25)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>Train!A25</f>
+        <v>40</v>
+      </c>
+      <c r="B26" s="12">
+        <v>65</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>-65</v>
+      </c>
+      <c r="I26">
+        <v>5.9000905415970609E-29</v>
+      </c>
+      <c r="J26" s="14">
+        <f>-Train!P25 * LN(I26) - (1-Train!P25) * LN(1-I26)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>Train!A26</f>
+        <v>41</v>
+      </c>
+      <c r="B27" s="12">
+        <v>51</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I27">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J27" s="14">
+        <f>-Train!P26 * LN(I27) - (1-Train!P26) * LN(1-I27)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>Train!A27</f>
+        <v>42</v>
+      </c>
+      <c r="B28" s="12">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I28">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J28" s="14">
+        <f>-Train!P27 * LN(I28) - (1-Train!P27) * LN(1-I28)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>Train!A28</f>
+        <v>45</v>
+      </c>
+      <c r="B29" s="12">
+        <v>39</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>-39</v>
+      </c>
+      <c r="I29">
+        <v>1.1548224173015786E-17</v>
+      </c>
+      <c r="J29" s="14">
+        <f>-Train!P28 * LN(I29) - (1-Train!P28) * LN(1-I29)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>Train!A29</f>
+        <v>46</v>
+      </c>
+      <c r="B30" s="12">
+        <v>52</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I30">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J30" s="14">
+        <f>-Train!P29 * LN(I30) - (1-Train!P29) * LN(1-I30)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>Train!A30</f>
+        <v>47</v>
+      </c>
+      <c r="B31" s="12">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I31">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J31" s="14">
+        <f>-Train!P30 * LN(I31) - (1-Train!P30) * LN(1-I31)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>Train!A31</f>
+        <v>50</v>
+      </c>
+      <c r="B32" s="12">
+        <v>53</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>-53</v>
+      </c>
+      <c r="I32">
+        <v>9.6026800545086756E-24</v>
+      </c>
+      <c r="J32" s="14">
+        <f>-Train!P31 * LN(I32) - (1-Train!P31) * LN(1-I32)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>Train!A32</f>
+        <v>51</v>
+      </c>
+      <c r="B33" s="12">
+        <v>51</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I33">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J33" s="14">
+        <f>-Train!P32 * LN(I33) - (1-Train!P32) * LN(1-I33)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>Train!A33</f>
+        <v>52</v>
+      </c>
+      <c r="B34" s="12">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>-66</v>
+      </c>
+      <c r="I34">
+        <v>2.1705220113036392E-29</v>
+      </c>
+      <c r="J34" s="14">
+        <f>-Train!P33 * LN(I34) - (1-Train!P33) * LN(1-I34)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>Train!A34</f>
+        <v>55</v>
+      </c>
+      <c r="B35" s="12">
+        <v>63</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>-63</v>
+      </c>
+      <c r="I35">
+        <v>4.3596100000630809E-28</v>
+      </c>
+      <c r="J35" s="14">
+        <f>-Train!P34 * LN(I35) - (1-Train!P34) * LN(1-I35)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>Train!A35</f>
+        <v>56</v>
+      </c>
+      <c r="B36" s="12">
+        <v>52</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I36">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J36" s="14">
+        <f>-Train!P35 * LN(I36) - (1-Train!P35) * LN(1-I36)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>Train!A36</f>
+        <v>57</v>
+      </c>
+      <c r="B37" s="12">
+        <v>48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I37">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J37" s="14">
+        <f>-Train!P36 * LN(I37) - (1-Train!P36) * LN(1-I37)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>Train!A37</f>
+        <v>60</v>
+      </c>
+      <c r="B38" s="12">
+        <v>57</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I38">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J38" s="14">
+        <f>-Train!P37 * LN(I38) - (1-Train!P37) * LN(1-I38)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>Train!A38</f>
+        <v>61</v>
+      </c>
+      <c r="B39" s="12">
+        <v>71</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>-71</v>
+      </c>
+      <c r="I39">
+        <v>1.4624862272512309E-31</v>
+      </c>
+      <c r="J39" s="14">
+        <f>-Train!P38 * LN(I39) - (1-Train!P38) * LN(1-I39)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>Train!A39</f>
+        <v>62</v>
+      </c>
+      <c r="B40" s="12">
+        <v>54</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I40">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J40" s="14">
+        <f>-Train!P39 * LN(I40) - (1-Train!P39) * LN(1-I40)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>Train!A40</f>
+        <v>65</v>
+      </c>
+      <c r="B41" s="12">
+        <v>58</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I41">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J41" s="14">
+        <f>-Train!P40 * LN(I41) - (1-Train!P40) * LN(1-I41)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>Train!A41</f>
+        <v>66</v>
+      </c>
+      <c r="B42" s="12">
+        <v>35</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>-35</v>
+      </c>
+      <c r="I42">
+        <v>6.3051167601469853E-16</v>
+      </c>
+      <c r="J42" s="14">
+        <f>-Train!P41 * LN(I42) - (1-Train!P41) * LN(1-I42)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>Train!A42</f>
+        <v>67</v>
+      </c>
+      <c r="B43" s="12">
+        <v>51</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I43">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J43" s="14">
+        <f>-Train!P42 * LN(I43) - (1-Train!P42) * LN(1-I43)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>Train!A43</f>
+        <v>70</v>
+      </c>
+      <c r="B44" s="12">
+        <v>62</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>-62</v>
+      </c>
+      <c r="I44">
+        <v>1.1850648642339812E-27</v>
+      </c>
+      <c r="J44" s="14">
+        <f>-Train!P43 * LN(I44) - (1-Train!P43) * LN(1-I44)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>Train!A44</f>
+        <v>71</v>
+      </c>
+      <c r="B45" s="12">
+        <v>54</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I45">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J45" s="14">
+        <f>-Train!P44 * LN(I45) - (1-Train!P44) * LN(1-I45)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>Train!A45</f>
+        <v>72</v>
+      </c>
+      <c r="B46" s="12">
+        <v>51</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I46">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J46" s="14">
+        <f>-Train!P45 * LN(I46) - (1-Train!P45) * LN(1-I46)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>Train!A46</f>
+        <v>75</v>
+      </c>
+      <c r="B47" s="12">
+        <v>43</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>-43</v>
+      </c>
+      <c r="I47">
+        <v>2.1151310375910807E-19</v>
+      </c>
+      <c r="J47" s="14">
+        <f>-Train!P46 * LN(I47) - (1-Train!P46) * LN(1-I47)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>Train!A47</f>
+        <v>76</v>
+      </c>
+      <c r="B48" s="12">
+        <v>55</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I48">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J48" s="14">
+        <f>-Train!P47 * LN(I48) - (1-Train!P47) * LN(1-I48)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>Train!A48</f>
+        <v>77</v>
+      </c>
+      <c r="B49" s="12">
+        <v>51</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I49">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J49" s="14">
+        <f>-Train!P48 * LN(I49) - (1-Train!P48) * LN(1-I49)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>Train!A49</f>
+        <v>80</v>
+      </c>
+      <c r="B50" s="12">
+        <v>58</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I50">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J50" s="14">
+        <f>-Train!P49 * LN(I50) - (1-Train!P49) * LN(1-I50)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>Train!A50</f>
+        <v>81</v>
+      </c>
+      <c r="B51" s="12">
+        <v>41</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>-41</v>
+      </c>
+      <c r="I51">
+        <v>1.5628821893349888E-18</v>
+      </c>
+      <c r="J51" s="14">
+        <f>-Train!P50 * LN(I51) - (1-Train!P50) * LN(1-I51)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>Train!A51</f>
+        <v>82</v>
+      </c>
+      <c r="B52" s="12">
+        <v>45</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>-45</v>
+      </c>
+      <c r="I52">
+        <v>2.8625185805493937E-20</v>
+      </c>
+      <c r="J52" s="14">
+        <f>-Train!P51 * LN(I52) - (1-Train!P51) * LN(1-I52)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>Train!A52</f>
+        <v>85</v>
+      </c>
+      <c r="B53" s="12">
+        <v>42</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>-42</v>
+      </c>
+      <c r="I53">
+        <v>5.7495222642935599E-19</v>
+      </c>
+      <c r="J53" s="14">
+        <f>-Train!P52 * LN(I53) - (1-Train!P52) * LN(1-I53)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>Train!A53</f>
+        <v>86</v>
+      </c>
+      <c r="B54" s="12">
+        <v>67</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>-67</v>
+      </c>
+      <c r="I54">
+        <v>7.9849042456869778E-30</v>
+      </c>
+      <c r="J54" s="14">
+        <f>-Train!P53 * LN(I54) - (1-Train!P53) * LN(1-I54)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>Train!A54</f>
+        <v>87</v>
+      </c>
+      <c r="B55" s="12">
+        <v>68</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>-68</v>
+      </c>
+      <c r="I55">
+        <v>2.9374821117108028E-30</v>
+      </c>
+      <c r="J55" s="14">
+        <f>-Train!P54 * LN(I55) - (1-Train!P54) * LN(1-I55)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>Train!A55</f>
+        <v>90</v>
+      </c>
+      <c r="B56" s="12">
+        <v>58</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I56">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J56" s="14">
+        <f>-Train!P55 * LN(I56) - (1-Train!P55) * LN(1-I56)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>Train!A56</f>
+        <v>91</v>
+      </c>
+      <c r="B57" s="12">
+        <v>48</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I57">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J57" s="14">
+        <f>-Train!P56 * LN(I57) - (1-Train!P56) * LN(1-I57)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>Train!A57</f>
+        <v>92</v>
+      </c>
+      <c r="B58" s="12">
+        <v>57</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I58">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J58" s="14">
+        <f>-Train!P57 * LN(I58) - (1-Train!P57) * LN(1-I58)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>Train!A58</f>
+        <v>95</v>
+      </c>
+      <c r="B59" s="12">
+        <v>45</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>-45</v>
+      </c>
+      <c r="I59">
+        <v>2.8625185805493937E-20</v>
+      </c>
+      <c r="J59" s="14">
+        <f>-Train!P58 * LN(I59) - (1-Train!P58) * LN(1-I59)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>Train!A59</f>
+        <v>96</v>
+      </c>
+      <c r="B60" s="12">
+        <v>53</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>-53</v>
+      </c>
+      <c r="I60">
+        <v>9.6026800545086756E-24</v>
+      </c>
+      <c r="J60" s="14">
+        <f>-Train!P59 * LN(I60) - (1-Train!P59) * LN(1-I60)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>Train!A60</f>
+        <v>97</v>
+      </c>
+      <c r="B61" s="12">
+        <v>62</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>-62</v>
+      </c>
+      <c r="I61">
+        <v>1.1850648642339812E-27</v>
+      </c>
+      <c r="J61" s="14">
+        <f>-Train!P60 * LN(I61) - (1-Train!P60) * LN(1-I61)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>Train!A61</f>
+        <v>100</v>
+      </c>
+      <c r="B62" s="12">
+        <v>53</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>-53</v>
+      </c>
+      <c r="I62">
+        <v>9.6026800545086756E-24</v>
+      </c>
+      <c r="J62" s="14">
+        <f>-Train!P61 * LN(I62) - (1-Train!P61) * LN(1-I62)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>Train!A62</f>
+        <v>101</v>
+      </c>
+      <c r="B63" s="12">
+        <v>42</v>
+      </c>
+      <c r="C63" s="12">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>-42</v>
+      </c>
+      <c r="I63">
+        <v>5.7495222642935599E-19</v>
+      </c>
+      <c r="J63" s="14">
+        <f>-Train!P62 * LN(I63) - (1-Train!P62) * LN(1-I63)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>Train!A63</f>
+        <v>102</v>
+      </c>
+      <c r="B64" s="12">
+        <v>59</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I64">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J64" s="14">
+        <f>-Train!P63 * LN(I64) - (1-Train!P63) * LN(1-I64)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f>Train!A64</f>
+        <v>105</v>
+      </c>
+      <c r="B65" s="12">
+        <v>50</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-50</v>
+      </c>
+      <c r="I65">
+        <v>1.9287498479639181E-22</v>
+      </c>
+      <c r="J65" s="14">
+        <f>-Train!P64 * LN(I65) - (1-Train!P64) * LN(1-I65)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>Train!A65</f>
+        <v>106</v>
+      </c>
+      <c r="B66" s="12">
+        <v>68</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <v>-68</v>
+      </c>
+      <c r="I66">
+        <v>2.9374821117108028E-30</v>
+      </c>
+      <c r="J66" s="14">
+        <f>-Train!P65 * LN(I66) - (1-Train!P65) * LN(1-I66)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f>Train!A66</f>
+        <v>107</v>
+      </c>
+      <c r="B67" s="12">
+        <v>69</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>-69</v>
+      </c>
+      <c r="I67">
+        <v>1.0806392777072785E-30</v>
+      </c>
+      <c r="J67" s="14">
+        <f>-Train!P66 * LN(I67) - (1-Train!P66) * LN(1-I67)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>Train!A67</f>
+        <v>110</v>
+      </c>
+      <c r="B68" s="12">
+        <v>50</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E131" si="4">MAX(0,B68)</f>
+        <v>50</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F131" si="5">MAX(0,C68)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="6">MAX(0,D68)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>-50</v>
+      </c>
+      <c r="I68">
+        <v>1.9287498479639181E-22</v>
+      </c>
+      <c r="J68" s="14">
+        <f>-Train!P67 * LN(I68) - (1-Train!P67) * LN(1-I68)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>Train!A68</f>
+        <v>111</v>
+      </c>
+      <c r="B69" s="12">
+        <v>64</v>
+      </c>
+      <c r="C69" s="12">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <v>-64</v>
+      </c>
+      <c r="I69">
+        <v>1.6038108905486379E-28</v>
+      </c>
+      <c r="J69" s="14">
+        <f>-Train!P68 * LN(I69) - (1-Train!P68) * LN(1-I69)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>Train!A69</f>
+        <v>112</v>
+      </c>
+      <c r="B70" s="12">
+        <v>57</v>
+      </c>
+      <c r="C70" s="12">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I70">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J70" s="14">
+        <f>-Train!P69 * LN(I70) - (1-Train!P69) * LN(1-I70)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f>Train!A70</f>
+        <v>115</v>
+      </c>
+      <c r="B71" s="12">
+        <v>55</v>
+      </c>
+      <c r="C71" s="12">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I71">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J71" s="14">
+        <f>-Train!P70 * LN(I71) - (1-Train!P70) * LN(1-I71)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>Train!A71</f>
+        <v>116</v>
+      </c>
+      <c r="B72" s="12">
+        <v>37</v>
+      </c>
+      <c r="C72" s="12">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>-37</v>
+      </c>
+      <c r="I72">
+        <v>8.5330476257440658E-17</v>
+      </c>
+      <c r="J72" s="14">
+        <f>-Train!P71 * LN(I72) - (1-Train!P71) * LN(1-I72)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f>Train!A72</f>
+        <v>117</v>
+      </c>
+      <c r="B73" s="12">
+        <v>41</v>
+      </c>
+      <c r="C73" s="12">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <v>-41</v>
+      </c>
+      <c r="I73">
+        <v>1.5628821893349888E-18</v>
+      </c>
+      <c r="J73" s="14">
+        <f>-Train!P72 * LN(I73) - (1-Train!P72) * LN(1-I73)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>Train!A73</f>
+        <v>120</v>
+      </c>
+      <c r="B74" s="12">
+        <v>46</v>
+      </c>
+      <c r="C74" s="12">
+        <v>0</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-46</v>
+      </c>
+      <c r="I74">
+        <v>1.0530617357553813E-20</v>
+      </c>
+      <c r="J74" s="14">
+        <f>-Train!P73 * LN(I74) - (1-Train!P73) * LN(1-I74)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f>Train!A74</f>
+        <v>121</v>
+      </c>
+      <c r="B75" s="12">
+        <v>64</v>
+      </c>
+      <c r="C75" s="12">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-64</v>
+      </c>
+      <c r="I75">
+        <v>1.6038108905486379E-28</v>
+      </c>
+      <c r="J75" s="14">
+        <f>-Train!P74 * LN(I75) - (1-Train!P74) * LN(1-I75)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>Train!A75</f>
+        <v>122</v>
+      </c>
+      <c r="B76" s="12">
+        <v>59</v>
+      </c>
+      <c r="C76" s="12">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I76">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J76" s="14">
+        <f>-Train!P75 * LN(I76) - (1-Train!P75) * LN(1-I76)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>Train!A76</f>
+        <v>125</v>
+      </c>
+      <c r="B77" s="12">
+        <v>39</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
+        <v>-39</v>
+      </c>
+      <c r="I77">
+        <v>1.1548224173015786E-17</v>
+      </c>
+      <c r="J77" s="14">
+        <f>-Train!P76 * LN(I77) - (1-Train!P76) * LN(1-I77)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>Train!A77</f>
+        <v>126</v>
+      </c>
+      <c r="B78" s="12">
+        <v>34</v>
+      </c>
+      <c r="C78" s="12">
+        <v>0</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>-34</v>
+      </c>
+      <c r="I78">
+        <v>1.71390843154201E-15</v>
+      </c>
+      <c r="J78" s="14">
+        <f>-Train!P77 * LN(I78) - (1-Train!P77) * LN(1-I78)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>Train!A78</f>
+        <v>127</v>
+      </c>
+      <c r="B79" s="12">
+        <v>47</v>
+      </c>
+      <c r="C79" s="12">
+        <v>0</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>-47</v>
+      </c>
+      <c r="I79">
+        <v>3.8739976286871868E-21</v>
+      </c>
+      <c r="J79" s="14">
+        <f>-Train!P78 * LN(I79) - (1-Train!P78) * LN(1-I79)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>Train!A79</f>
+        <v>130</v>
+      </c>
+      <c r="B80" s="12">
+        <v>74</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="13">
+        <v>-74</v>
+      </c>
+      <c r="I80">
+        <v>7.2812901783216448E-33</v>
+      </c>
+      <c r="J80" s="14">
+        <f>-Train!P79 * LN(I80) - (1-Train!P79) * LN(1-I80)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>Train!A80</f>
+        <v>131</v>
+      </c>
+      <c r="B81" s="12">
+        <v>54</v>
+      </c>
+      <c r="C81" s="12">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I81">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J81" s="14">
+        <f>-Train!P80 * LN(I81) - (1-Train!P80) * LN(1-I81)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>Train!A81</f>
+        <v>132</v>
+      </c>
+      <c r="B82" s="12">
+        <v>49</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="13">
+        <v>-49</v>
+      </c>
+      <c r="I82">
+        <v>5.2428856633634639E-22</v>
+      </c>
+      <c r="J82" s="14">
+        <f>-Train!P81 * LN(I82) - (1-Train!P81) * LN(1-I82)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f>Train!A82</f>
+        <v>135</v>
+      </c>
+      <c r="B83" s="12">
+        <v>41</v>
+      </c>
+      <c r="C83" s="12">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-41</v>
+      </c>
+      <c r="I83">
+        <v>1.5628821893349888E-18</v>
+      </c>
+      <c r="J83" s="14">
+        <f>-Train!P82 * LN(I83) - (1-Train!P82) * LN(1-I83)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>Train!A83</f>
+        <v>136</v>
+      </c>
+      <c r="B84" s="12">
+        <v>49</v>
+      </c>
+      <c r="C84" s="12">
+        <v>0</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-49</v>
+      </c>
+      <c r="I84">
+        <v>5.2428856633634639E-22</v>
+      </c>
+      <c r="J84" s="14">
+        <f>-Train!P83 * LN(I84) - (1-Train!P83) * LN(1-I84)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>Train!A84</f>
+        <v>137</v>
+      </c>
+      <c r="B85" s="12">
+        <v>60</v>
+      </c>
+      <c r="C85" s="12">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I85">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J85" s="14">
+        <f>-Train!P84 * LN(I85) - (1-Train!P84) * LN(1-I85)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>Train!A85</f>
+        <v>140</v>
+      </c>
+      <c r="B86" s="12">
+        <v>64</v>
+      </c>
+      <c r="C86" s="12">
+        <v>0</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="13">
+        <v>-64</v>
+      </c>
+      <c r="I86">
+        <v>1.6038108905486379E-28</v>
+      </c>
+      <c r="J86" s="14">
+        <f>-Train!P85 * LN(I86) - (1-Train!P85) * LN(1-I86)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f>Train!A86</f>
+        <v>141</v>
+      </c>
+      <c r="B87" s="12">
+        <v>51</v>
+      </c>
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I87">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J87" s="14">
+        <f>-Train!P86 * LN(I87) - (1-Train!P86) * LN(1-I87)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>Train!A87</f>
+        <v>142</v>
+      </c>
+      <c r="B88" s="12">
+        <v>43</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>-43</v>
+      </c>
+      <c r="I88">
+        <v>2.1151310375910807E-19</v>
+      </c>
+      <c r="J88" s="14">
+        <f>-Train!P87 * LN(I88) - (1-Train!P87) * LN(1-I88)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f>Train!A88</f>
+        <v>145</v>
+      </c>
+      <c r="B89" s="12">
+        <v>76</v>
+      </c>
+      <c r="C89" s="12">
+        <v>0</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-76</v>
+      </c>
+      <c r="I89">
+        <v>9.8541546861112575E-34</v>
+      </c>
+      <c r="J89" s="14">
+        <f>-Train!P88 * LN(I89) - (1-Train!P88) * LN(1-I89)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>Train!A89</f>
+        <v>146</v>
+      </c>
+      <c r="B90" s="12">
+        <v>70</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="13">
+        <v>-70</v>
+      </c>
+      <c r="I90">
+        <v>3.9754497359086468E-31</v>
+      </c>
+      <c r="J90" s="14">
+        <f>-Train!P89 * LN(I90) - (1-Train!P89) * LN(1-I90)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>Train!A90</f>
+        <v>147</v>
+      </c>
+      <c r="B91" s="12">
+        <v>44</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I91">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J91" s="14">
+        <f>-Train!P90 * LN(I91) - (1-Train!P90) * LN(1-I91)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>Train!A91</f>
+        <v>150</v>
+      </c>
+      <c r="B92" s="12">
+        <v>42</v>
+      </c>
+      <c r="C92" s="12">
+        <v>0</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <v>-42</v>
+      </c>
+      <c r="I92">
+        <v>5.7495222642935599E-19</v>
+      </c>
+      <c r="J92" s="14">
+        <f>-Train!P91 * LN(I92) - (1-Train!P91) * LN(1-I92)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f>Train!A92</f>
+        <v>151</v>
+      </c>
+      <c r="B93" s="12">
+        <v>66</v>
+      </c>
+      <c r="C93" s="12">
+        <v>0</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="13">
+        <v>-66</v>
+      </c>
+      <c r="I93">
+        <v>2.1705220113036392E-29</v>
+      </c>
+      <c r="J93" s="14">
+        <f>-Train!P92 * LN(I93) - (1-Train!P92) * LN(1-I93)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>Train!A93</f>
+        <v>152</v>
+      </c>
+      <c r="B94" s="12">
+        <v>71</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="13">
+        <v>-71</v>
+      </c>
+      <c r="I94">
+        <v>1.4624862272512309E-31</v>
+      </c>
+      <c r="J94" s="14">
+        <f>-Train!P93 * LN(I94) - (1-Train!P93) * LN(1-I94)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>Train!A94</f>
+        <v>155</v>
+      </c>
+      <c r="B95" s="12">
+        <v>39</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="13">
+        <v>-39</v>
+      </c>
+      <c r="I95">
+        <v>1.1548224173015786E-17</v>
+      </c>
+      <c r="J95" s="14">
+        <f>-Train!P94 * LN(I95) - (1-Train!P94) * LN(1-I95)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>Train!A95</f>
+        <v>156</v>
+      </c>
+      <c r="B96" s="12">
+        <v>58</v>
+      </c>
+      <c r="C96" s="12">
+        <v>0</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I96">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J96" s="14">
+        <f>-Train!P95 * LN(I96) - (1-Train!P95) * LN(1-I96)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f>Train!A96</f>
+        <v>157</v>
+      </c>
+      <c r="B97" s="12">
+        <v>47</v>
+      </c>
+      <c r="C97" s="12">
+        <v>0</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <v>-47</v>
+      </c>
+      <c r="I97">
+        <v>3.8739976286871868E-21</v>
+      </c>
+      <c r="J97" s="14">
+        <f>-Train!P96 * LN(I97) - (1-Train!P96) * LN(1-I97)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>Train!A97</f>
+        <v>160</v>
+      </c>
+      <c r="B98" s="12">
+        <v>56</v>
+      </c>
+      <c r="C98" s="12">
+        <v>0</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I98">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J98" s="14">
+        <f>-Train!P97 * LN(I98) - (1-Train!P97) * LN(1-I98)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>Train!A98</f>
+        <v>161</v>
+      </c>
+      <c r="B99" s="12">
+        <v>56</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I99">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J99" s="14">
+        <f>-Train!P98 * LN(I99) - (1-Train!P98) * LN(1-I99)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>Train!A99</f>
+        <v>162</v>
+      </c>
+      <c r="B100" s="12">
+        <v>55</v>
+      </c>
+      <c r="C100" s="12">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I100">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J100" s="14">
+        <f>-Train!P99 * LN(I100) - (1-Train!P99) * LN(1-I100)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f>Train!A100</f>
+        <v>165</v>
+      </c>
+      <c r="B101" s="12">
+        <v>38</v>
+      </c>
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <v>-38</v>
+      </c>
+      <c r="I101">
+        <v>3.1391327920480296E-17</v>
+      </c>
+      <c r="J101" s="14">
+        <f>-Train!P100 * LN(I101) - (1-Train!P100) * LN(1-I101)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>Train!A101</f>
+        <v>166</v>
+      </c>
+      <c r="B102" s="12">
+        <v>67</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <v>-67</v>
+      </c>
+      <c r="I102">
+        <v>7.9849042456869778E-30</v>
+      </c>
+      <c r="J102" s="14">
+        <f>-Train!P101 * LN(I102) - (1-Train!P101) * LN(1-I102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f>Train!A102</f>
+        <v>167</v>
+      </c>
+      <c r="B103" s="12">
+        <v>67</v>
+      </c>
+      <c r="C103" s="12">
+        <v>0</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <v>-67</v>
+      </c>
+      <c r="I103">
+        <v>7.9849042456869778E-30</v>
+      </c>
+      <c r="J103" s="14">
+        <f>-Train!P102 * LN(I103) - (1-Train!P102) * LN(1-I103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>Train!A103</f>
+        <v>170</v>
+      </c>
+      <c r="B104" s="12">
+        <v>53</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="13">
+        <v>-53</v>
+      </c>
+      <c r="I104">
+        <v>9.6026800545086756E-24</v>
+      </c>
+      <c r="J104" s="14">
+        <f>-Train!P103 * LN(I104) - (1-Train!P103) * LN(1-I104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f>Train!A104</f>
+        <v>171</v>
+      </c>
+      <c r="B105" s="12">
+        <v>56</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I105">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J105" s="14">
+        <f>-Train!P104 * LN(I105) - (1-Train!P104) * LN(1-I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>Train!A105</f>
+        <v>172</v>
+      </c>
+      <c r="B106" s="12">
+        <v>48</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I106">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J106" s="14">
+        <f>-Train!P105 * LN(I106) - (1-Train!P105) * LN(1-I106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f>Train!A106</f>
+        <v>175</v>
+      </c>
+      <c r="B107" s="12">
+        <v>60</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I107">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J107" s="14">
+        <f>-Train!P106 * LN(I107) - (1-Train!P106) * LN(1-I107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f>Train!A107</f>
+        <v>176</v>
+      </c>
+      <c r="B108" s="12">
+        <v>40</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <v>-40</v>
+      </c>
+      <c r="I108">
+        <v>4.2483542552915889E-18</v>
+      </c>
+      <c r="J108" s="14">
+        <f>-Train!P107 * LN(I108) - (1-Train!P107) * LN(1-I108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f>Train!A108</f>
+        <v>177</v>
+      </c>
+      <c r="B109" s="12">
+        <v>60</v>
+      </c>
+      <c r="C109" s="12">
+        <v>0</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I109">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J109" s="14">
+        <f>-Train!P108 * LN(I109) - (1-Train!P108) * LN(1-I109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f>Train!A109</f>
+        <v>180</v>
+      </c>
+      <c r="B110" s="12">
+        <v>57</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I110">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J110" s="14">
+        <f>-Train!P109 * LN(I110) - (1-Train!P109) * LN(1-I110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f>Train!A110</f>
+        <v>181</v>
+      </c>
+      <c r="B111" s="12">
+        <v>55</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I111">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J111" s="14">
+        <f>-Train!P110 * LN(I111) - (1-Train!P110) * LN(1-I111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f>Train!A111</f>
+        <v>182</v>
+      </c>
+      <c r="B112" s="12">
+        <v>65</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <v>-65</v>
+      </c>
+      <c r="I112">
+        <v>5.9000905415970609E-29</v>
+      </c>
+      <c r="J112" s="14">
+        <f>-Train!P111 * LN(I112) - (1-Train!P111) * LN(1-I112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f>Train!A112</f>
+        <v>185</v>
+      </c>
+      <c r="B113" s="12">
+        <v>50</v>
+      </c>
+      <c r="C113" s="12">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <v>-50</v>
+      </c>
+      <c r="I113">
+        <v>1.9287498479639181E-22</v>
+      </c>
+      <c r="J113" s="14">
+        <f>-Train!P112 * LN(I113) - (1-Train!P112) * LN(1-I113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>Train!A113</f>
+        <v>186</v>
+      </c>
+      <c r="B114" s="12">
+        <v>44</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I114">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J114" s="14">
+        <f>-Train!P113 * LN(I114) - (1-Train!P113) * LN(1-I114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f>Train!A114</f>
+        <v>187</v>
+      </c>
+      <c r="B115" s="12">
+        <v>60</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I115">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J115" s="14">
+        <f>-Train!P114 * LN(I115) - (1-Train!P114) * LN(1-I115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f>Train!A115</f>
+        <v>190</v>
+      </c>
+      <c r="B116" s="12">
+        <v>41</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <v>-41</v>
+      </c>
+      <c r="I116">
+        <v>1.5628821893349888E-18</v>
+      </c>
+      <c r="J116" s="14">
+        <f>-Train!P115 * LN(I116) - (1-Train!P115) * LN(1-I116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f>Train!A116</f>
+        <v>191</v>
+      </c>
+      <c r="B117" s="12">
+        <v>51</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I117">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J117" s="14">
+        <f>-Train!P116 * LN(I117) - (1-Train!P116) * LN(1-I117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>Train!A117</f>
+        <v>192</v>
+      </c>
+      <c r="B118" s="12">
+        <v>58</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I118">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J118" s="14">
+        <f>-Train!P117 * LN(I118) - (1-Train!P117) * LN(1-I118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f>Train!A118</f>
+        <v>195</v>
+      </c>
+      <c r="B119" s="12">
+        <v>60</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I119">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J119" s="14">
+        <f>-Train!P118 * LN(I119) - (1-Train!P118) * LN(1-I119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f>Train!A119</f>
+        <v>196</v>
+      </c>
+      <c r="B120" s="12">
+        <v>59</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I120">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J120" s="14">
+        <f>-Train!P119 * LN(I120) - (1-Train!P119) * LN(1-I120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f>Train!A120</f>
+        <v>197</v>
+      </c>
+      <c r="B121" s="12">
+        <v>46</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="13">
+        <v>-46</v>
+      </c>
+      <c r="I121">
+        <v>1.0530617357553813E-20</v>
+      </c>
+      <c r="J121" s="14">
+        <f>-Train!P120 * LN(I121) - (1-Train!P120) * LN(1-I121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f>Train!A121</f>
+        <v>200</v>
+      </c>
+      <c r="B122" s="12">
+        <v>65</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="13">
+        <v>-65</v>
+      </c>
+      <c r="I122">
+        <v>5.9000905415970609E-29</v>
+      </c>
+      <c r="J122" s="14">
+        <f>-Train!P121 * LN(I122) - (1-Train!P121) * LN(1-I122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f>Train!A122</f>
+        <v>201</v>
+      </c>
+      <c r="B123" s="12">
+        <v>44</v>
+      </c>
+      <c r="C123" s="12">
+        <v>0</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I123">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J123" s="14">
+        <f>-Train!P122 * LN(I123) - (1-Train!P122) * LN(1-I123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f>Train!A123</f>
+        <v>202</v>
+      </c>
+      <c r="B124" s="12">
+        <v>60</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="13">
+        <v>-60</v>
+      </c>
+      <c r="I124">
+        <v>8.75651076269652E-27</v>
+      </c>
+      <c r="J124" s="14">
+        <f>-Train!P123 * LN(I124) - (1-Train!P123) * LN(1-I124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f>Train!A124</f>
+        <v>205</v>
+      </c>
+      <c r="B125" s="12">
+        <v>62</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="13">
+        <v>-62</v>
+      </c>
+      <c r="I125">
+        <v>1.1850648642339812E-27</v>
+      </c>
+      <c r="J125" s="14">
+        <f>-Train!P124 * LN(I125) - (1-Train!P124) * LN(1-I125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f>Train!A125</f>
+        <v>206</v>
+      </c>
+      <c r="B126" s="12">
+        <v>52</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I126">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J126" s="14">
+        <f>-Train!P125 * LN(I126) - (1-Train!P125) * LN(1-I126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f>Train!A126</f>
+        <v>207</v>
+      </c>
+      <c r="B127" s="12">
+        <v>59</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I127">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J127" s="14">
+        <f>-Train!P126 * LN(I127) - (1-Train!P126) * LN(1-I127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f>Train!A127</f>
+        <v>210</v>
+      </c>
+      <c r="B128" s="12">
+        <v>59</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I128">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J128" s="14">
+        <f>-Train!P127 * LN(I128) - (1-Train!P127) * LN(1-I128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f>Train!A128</f>
+        <v>211</v>
+      </c>
+      <c r="B129" s="12">
+        <v>57</v>
+      </c>
+      <c r="C129" s="12">
+        <v>0</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I129">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J129" s="14">
+        <f>-Train!P128 * LN(I129) - (1-Train!P128) * LN(1-I129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f>Train!A129</f>
+        <v>212</v>
+      </c>
+      <c r="B130" s="12">
+        <v>61</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="13">
+        <v>-61</v>
+      </c>
+      <c r="I130">
+        <v>3.2213402859925163E-27</v>
+      </c>
+      <c r="J130" s="14">
+        <f>-Train!P129 * LN(I130) - (1-Train!P129) * LN(1-I130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f>Train!A130</f>
+        <v>215</v>
+      </c>
+      <c r="B131" s="12">
+        <v>56</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I131">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J131" s="14">
+        <f>-Train!P130 * LN(I131) - (1-Train!P130) * LN(1-I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f>Train!A131</f>
+        <v>216</v>
+      </c>
+      <c r="B132" s="12">
+        <v>43</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E184" si="7">MAX(0,B132)</f>
+        <v>43</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F184" si="8">MAX(0,C132)</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G184" si="9">MAX(0,D132)</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="13">
+        <v>-43</v>
+      </c>
+      <c r="I132">
+        <v>2.1151310375910807E-19</v>
+      </c>
+      <c r="J132" s="14">
+        <f>-Train!P131 * LN(I132) - (1-Train!P131) * LN(1-I132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f>Train!A132</f>
+        <v>217</v>
+      </c>
+      <c r="B133" s="12">
+        <v>62</v>
+      </c>
+      <c r="C133" s="12">
+        <v>0</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="13">
+        <v>-62</v>
+      </c>
+      <c r="I133">
+        <v>1.1850648642339812E-27</v>
+      </c>
+      <c r="J133" s="14">
+        <f>-Train!P132 * LN(I133) - (1-Train!P132) * LN(1-I133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f>Train!A133</f>
+        <v>220</v>
+      </c>
+      <c r="B134" s="12">
+        <v>48</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I134">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J134" s="14">
+        <f>-Train!P133 * LN(I134) - (1-Train!P133) * LN(1-I134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f>Train!A134</f>
+        <v>221</v>
+      </c>
+      <c r="B135" s="12">
+        <v>63</v>
+      </c>
+      <c r="C135" s="12">
+        <v>0</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="13">
+        <v>-63</v>
+      </c>
+      <c r="I135">
+        <v>4.3596100000630809E-28</v>
+      </c>
+      <c r="J135" s="14">
+        <f>-Train!P134 * LN(I135) - (1-Train!P134) * LN(1-I135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f>Train!A135</f>
+        <v>222</v>
+      </c>
+      <c r="B136" s="12">
+        <v>55</v>
+      </c>
+      <c r="C136" s="12">
+        <v>0</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I136">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J136" s="14">
+        <f>-Train!P135 * LN(I136) - (1-Train!P135) * LN(1-I136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f>Train!A136</f>
+        <v>225</v>
+      </c>
+      <c r="B137" s="12">
+        <v>54</v>
+      </c>
+      <c r="C137" s="12">
+        <v>0</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I137">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J137" s="14">
+        <f>-Train!P136 * LN(I137) - (1-Train!P136) * LN(1-I137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f>Train!A137</f>
+        <v>226</v>
+      </c>
+      <c r="B138" s="12">
+        <v>70</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="13">
+        <v>-70</v>
+      </c>
+      <c r="I138">
+        <v>3.9754497359086468E-31</v>
+      </c>
+      <c r="J138" s="14">
+        <f>-Train!P137 * LN(I138) - (1-Train!P137) * LN(1-I138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f>Train!A138</f>
+        <v>227</v>
+      </c>
+      <c r="B139" s="12">
+        <v>62</v>
+      </c>
+      <c r="C139" s="12">
+        <v>0</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="13">
+        <v>-62</v>
+      </c>
+      <c r="I139">
+        <v>1.1850648642339812E-27</v>
+      </c>
+      <c r="J139" s="14">
+        <f>-Train!P138 * LN(I139) - (1-Train!P138) * LN(1-I139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f>Train!A139</f>
+        <v>230</v>
+      </c>
+      <c r="B140" s="12">
+        <v>64</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="13">
+        <v>-64</v>
+      </c>
+      <c r="I140">
+        <v>1.6038108905486379E-28</v>
+      </c>
+      <c r="J140" s="14">
+        <f>-Train!P139 * LN(I140) - (1-Train!P139) * LN(1-I140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f>Train!A140</f>
+        <v>231</v>
+      </c>
+      <c r="B141" s="12">
+        <v>47</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="13">
+        <v>-47</v>
+      </c>
+      <c r="I141">
+        <v>3.8739976286871868E-21</v>
+      </c>
+      <c r="J141" s="14">
+        <f>-Train!P140 * LN(I141) - (1-Train!P140) * LN(1-I141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f>Train!A141</f>
+        <v>232</v>
+      </c>
+      <c r="B142" s="12">
+        <v>57</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I142">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J142" s="14">
+        <f>-Train!P141 * LN(I142) - (1-Train!P141) * LN(1-I142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f>Train!A142</f>
+        <v>235</v>
+      </c>
+      <c r="B143" s="12">
+        <v>70</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H143" s="13">
+        <v>-70</v>
+      </c>
+      <c r="I143">
+        <v>3.9754497359086468E-31</v>
+      </c>
+      <c r="J143" s="14">
+        <f>-Train!P142 * LN(I143) - (1-Train!P142) * LN(1-I143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f>Train!A143</f>
+        <v>236</v>
+      </c>
+      <c r="B144" s="12">
+        <v>51</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I144">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J144" s="14">
+        <f>-Train!P143 * LN(I144) - (1-Train!P143) * LN(1-I144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f>Train!A144</f>
+        <v>237</v>
+      </c>
+      <c r="B145" s="12">
+        <v>58</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I145">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J145" s="14">
+        <f>-Train!P144 * LN(I145) - (1-Train!P144) * LN(1-I145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f>Train!A145</f>
+        <v>240</v>
+      </c>
+      <c r="B146" s="12">
+        <v>35</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="13">
+        <v>-35</v>
+      </c>
+      <c r="I146">
+        <v>6.3051167601469853E-16</v>
+      </c>
+      <c r="J146" s="14">
+        <f>-Train!P145 * LN(I146) - (1-Train!P145) * LN(1-I146)</f>
+        <v>6.6613381477509412E-16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f>Train!A146</f>
+        <v>241</v>
+      </c>
+      <c r="B147" s="12">
+        <v>70</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="13">
+        <v>-70</v>
+      </c>
+      <c r="I147">
+        <v>3.9754497359086468E-31</v>
+      </c>
+      <c r="J147" s="14">
+        <f>-Train!P146 * LN(I147) - (1-Train!P146) * LN(1-I147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f>Train!A147</f>
+        <v>242</v>
+      </c>
+      <c r="B148" s="12">
+        <v>59</v>
+      </c>
+      <c r="C148" s="12">
+        <v>0</v>
+      </c>
+      <c r="D148" s="12">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I148">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J148" s="14">
+        <f>-Train!P147 * LN(I148) - (1-Train!P147) * LN(1-I148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f>Train!A148</f>
+        <v>245</v>
+      </c>
+      <c r="B149" s="12">
+        <v>56</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I149">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J149" s="14">
+        <f>-Train!P148 * LN(I149) - (1-Train!P148) * LN(1-I149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f>Train!A149</f>
+        <v>246</v>
+      </c>
+      <c r="B150" s="12">
+        <v>48</v>
+      </c>
+      <c r="C150" s="12">
+        <v>0</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="13">
+        <v>-48</v>
+      </c>
+      <c r="I150">
+        <v>1.4251640827409352E-21</v>
+      </c>
+      <c r="J150" s="14">
+        <f>-Train!P149 * LN(I150) - (1-Train!P149) * LN(1-I150)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f>Train!A150</f>
+        <v>247</v>
+      </c>
+      <c r="B151" s="12">
+        <v>56</v>
+      </c>
+      <c r="C151" s="12">
+        <v>0</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I151">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J151" s="14">
+        <f>-Train!P150 * LN(I151) - (1-Train!P150) * LN(1-I151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f>Train!A151</f>
+        <v>250</v>
+      </c>
+      <c r="B152" s="12">
+        <v>69</v>
+      </c>
+      <c r="C152" s="12">
+        <v>0</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="13">
+        <v>-69</v>
+      </c>
+      <c r="I152">
+        <v>1.0806392777072785E-30</v>
+      </c>
+      <c r="J152" s="14">
+        <f>-Train!P151 * LN(I152) - (1-Train!P151) * LN(1-I152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f>Train!A152</f>
+        <v>251</v>
+      </c>
+      <c r="B153" s="12">
+        <v>51</v>
+      </c>
+      <c r="C153" s="12">
+        <v>0</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="13">
+        <v>-51</v>
+      </c>
+      <c r="I153">
+        <v>7.0954741622847037E-23</v>
+      </c>
+      <c r="J153" s="14">
+        <f>-Train!P152 * LN(I153) - (1-Train!P152) * LN(1-I153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f>Train!A153</f>
+        <v>252</v>
+      </c>
+      <c r="B154" s="12">
+        <v>43</v>
+      </c>
+      <c r="C154" s="12">
+        <v>0</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="13">
+        <v>-43</v>
+      </c>
+      <c r="I154">
+        <v>2.1151310375910807E-19</v>
+      </c>
+      <c r="J154" s="14">
+        <f>-Train!P153 * LN(I154) - (1-Train!P153) * LN(1-I154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f>Train!A154</f>
+        <v>255</v>
+      </c>
+      <c r="B155" s="12">
+        <v>59</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I155">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J155" s="14">
+        <f>-Train!P154 * LN(I155) - (1-Train!P154) * LN(1-I155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f>Train!A155</f>
+        <v>256</v>
+      </c>
+      <c r="B156" s="12">
+        <v>45</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="13">
+        <v>-45</v>
+      </c>
+      <c r="I156">
+        <v>2.8625185805493937E-20</v>
+      </c>
+      <c r="J156" s="14">
+        <f>-Train!P155 * LN(I156) - (1-Train!P155) * LN(1-I156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f>Train!A156</f>
+        <v>257</v>
+      </c>
+      <c r="B157" s="12">
+        <v>58</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H157" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I157">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J157" s="14">
+        <f>-Train!P156 * LN(I157) - (1-Train!P156) * LN(1-I157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f>Train!A157</f>
+        <v>260</v>
+      </c>
+      <c r="B158" s="12">
+        <v>38</v>
+      </c>
+      <c r="C158" s="12">
+        <v>0</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="13">
+        <v>-38</v>
+      </c>
+      <c r="I158">
+        <v>3.1391327920480296E-17</v>
+      </c>
+      <c r="J158" s="14">
+        <f>-Train!P157 * LN(I158) - (1-Train!P157) * LN(1-I158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f>Train!A158</f>
+        <v>261</v>
+      </c>
+      <c r="B159" s="12">
+        <v>66</v>
+      </c>
+      <c r="C159" s="12">
+        <v>0</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="13">
+        <v>-66</v>
+      </c>
+      <c r="I159">
+        <v>2.1705220113036392E-29</v>
+      </c>
+      <c r="J159" s="14">
+        <f>-Train!P158 * LN(I159) - (1-Train!P158) * LN(1-I159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f>Train!A159</f>
+        <v>262</v>
+      </c>
+      <c r="B160" s="12">
+        <v>52</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I160">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J160" s="14">
+        <f>-Train!P159 * LN(I160) - (1-Train!P159) * LN(1-I160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f>Train!A160</f>
+        <v>265</v>
+      </c>
+      <c r="B161" s="12">
+        <v>54</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H161" s="13">
+        <v>-54</v>
+      </c>
+      <c r="I161">
+        <v>3.5326285722008071E-24</v>
+      </c>
+      <c r="J161" s="14">
+        <f>-Train!P160 * LN(I161) - (1-Train!P160) * LN(1-I161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f>Train!A161</f>
+        <v>266</v>
+      </c>
+      <c r="B162" s="12">
+        <v>66</v>
+      </c>
+      <c r="C162" s="12">
+        <v>0</v>
+      </c>
+      <c r="D162" s="12">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="13">
+        <v>-66</v>
+      </c>
+      <c r="I162">
+        <v>2.1705220113036392E-29</v>
+      </c>
+      <c r="J162" s="14">
+        <f>-Train!P161 * LN(I162) - (1-Train!P161) * LN(1-I162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f>Train!A162</f>
+        <v>267</v>
+      </c>
+      <c r="B163" s="12">
+        <v>55</v>
+      </c>
+      <c r="C163" s="12">
+        <v>0</v>
+      </c>
+      <c r="D163" s="12">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H163" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I163">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J163" s="14">
+        <f>-Train!P162 * LN(I163) - (1-Train!P162) * LN(1-I163)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f>Train!A163</f>
+        <v>270</v>
+      </c>
+      <c r="B164" s="12">
+        <v>56</v>
+      </c>
+      <c r="C164" s="12">
+        <v>0</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="13">
+        <v>-56</v>
+      </c>
+      <c r="I164">
+        <v>4.7808928838854688E-25</v>
+      </c>
+      <c r="J164" s="14">
+        <f>-Train!P163 * LN(I164) - (1-Train!P163) * LN(1-I164)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f>Train!A164</f>
+        <v>271</v>
+      </c>
+      <c r="B165" s="12">
+        <v>46</v>
+      </c>
+      <c r="C165" s="12">
+        <v>0</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="13">
+        <v>-46</v>
+      </c>
+      <c r="I165">
+        <v>1.0530617357553813E-20</v>
+      </c>
+      <c r="J165" s="14">
+        <f>-Train!P164 * LN(I165) - (1-Train!P164) * LN(1-I165)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f>Train!A165</f>
+        <v>272</v>
+      </c>
+      <c r="B166" s="12">
+        <v>61</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H166" s="13">
+        <v>-61</v>
+      </c>
+      <c r="I166">
+        <v>3.2213402859925163E-27</v>
+      </c>
+      <c r="J166" s="14">
+        <f>-Train!P165 * LN(I166) - (1-Train!P165) * LN(1-I166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f>Train!A166</f>
+        <v>275</v>
+      </c>
+      <c r="B167" s="12">
+        <v>47</v>
+      </c>
+      <c r="C167" s="12">
+        <v>0</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H167" s="13">
+        <v>-47</v>
+      </c>
+      <c r="I167">
+        <v>3.8739976286871868E-21</v>
+      </c>
+      <c r="J167" s="14">
+        <f>-Train!P166 * LN(I167) - (1-Train!P166) * LN(1-I167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f>Train!A167</f>
+        <v>276</v>
+      </c>
+      <c r="B168" s="12">
+        <v>52</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I168">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J168" s="14">
+        <f>-Train!P167 * LN(I168) - (1-Train!P167) * LN(1-I168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f>Train!A168</f>
+        <v>277</v>
+      </c>
+      <c r="B169" s="12">
+        <v>58</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H169" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I169">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J169" s="14">
+        <f>-Train!P168 * LN(I169) - (1-Train!P168) * LN(1-I169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f>Train!A169</f>
+        <v>280</v>
+      </c>
+      <c r="B170" s="12">
+        <v>61</v>
+      </c>
+      <c r="C170" s="12">
+        <v>0</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="13">
+        <v>-61</v>
+      </c>
+      <c r="I170">
+        <v>3.2213402859925163E-27</v>
+      </c>
+      <c r="J170" s="14">
+        <f>-Train!P169 * LN(I170) - (1-Train!P169) * LN(1-I170)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f>Train!A170</f>
+        <v>281</v>
+      </c>
+      <c r="B171" s="12">
+        <v>42</v>
+      </c>
+      <c r="C171" s="12">
+        <v>0</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H171" s="13">
+        <v>-42</v>
+      </c>
+      <c r="I171">
+        <v>5.7495222642935599E-19</v>
+      </c>
+      <c r="J171" s="14">
+        <f>-Train!P170 * LN(I171) - (1-Train!P170) * LN(1-I171)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f>Train!A171</f>
+        <v>282</v>
+      </c>
+      <c r="B172" s="12">
+        <v>52</v>
+      </c>
+      <c r="C172" s="12">
+        <v>0</v>
+      </c>
+      <c r="D172" s="12">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="13">
+        <v>-52</v>
+      </c>
+      <c r="I172">
+        <v>2.6102790696677047E-23</v>
+      </c>
+      <c r="J172" s="14">
+        <f>-Train!P171 * LN(I172) - (1-Train!P171) * LN(1-I172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f>Train!A172</f>
+        <v>285</v>
+      </c>
+      <c r="B173" s="12">
+        <v>61</v>
+      </c>
+      <c r="C173" s="12">
+        <v>0</v>
+      </c>
+      <c r="D173" s="12">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H173" s="13">
+        <v>-61</v>
+      </c>
+      <c r="I173">
+        <v>3.2213402859925163E-27</v>
+      </c>
+      <c r="J173" s="14">
+        <f>-Train!P172 * LN(I173) - (1-Train!P172) * LN(1-I173)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f>Train!A173</f>
+        <v>286</v>
+      </c>
+      <c r="B174" s="12">
+        <v>46</v>
+      </c>
+      <c r="C174" s="12">
+        <v>0</v>
+      </c>
+      <c r="D174" s="12">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="13">
+        <v>-46</v>
+      </c>
+      <c r="I174">
+        <v>1.0530617357553813E-20</v>
+      </c>
+      <c r="J174" s="14">
+        <f>-Train!P173 * LN(I174) - (1-Train!P173) * LN(1-I174)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f>Train!A174</f>
+        <v>287</v>
+      </c>
+      <c r="B175" s="12">
+        <v>59</v>
+      </c>
+      <c r="C175" s="12">
+        <v>0</v>
+      </c>
+      <c r="D175" s="12">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H175" s="13">
+        <v>-59</v>
+      </c>
+      <c r="I175">
+        <v>2.3802664086944004E-26</v>
+      </c>
+      <c r="J175" s="14">
+        <f>-Train!P174 * LN(I175) - (1-Train!P174) * LN(1-I175)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f>Train!A175</f>
+        <v>290</v>
+      </c>
+      <c r="B176" s="12">
+        <v>55</v>
+      </c>
+      <c r="C176" s="12">
+        <v>0</v>
+      </c>
+      <c r="D176" s="12">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>-55</v>
+      </c>
+      <c r="I176">
+        <v>1.2995814250075029E-24</v>
+      </c>
+      <c r="J176" s="14">
+        <f>-Train!P175 * LN(I176) - (1-Train!P175) * LN(1-I176)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f>Train!A176</f>
+        <v>291</v>
+      </c>
+      <c r="B177" s="12">
+        <v>61</v>
+      </c>
+      <c r="C177" s="12">
+        <v>0</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>-61</v>
+      </c>
+      <c r="I177">
+        <v>3.2213402859925163E-27</v>
+      </c>
+      <c r="J177" s="14">
+        <f>-Train!P176 * LN(I177) - (1-Train!P176) * LN(1-I177)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f>Train!A177</f>
+        <v>292</v>
+      </c>
+      <c r="B178" s="12">
+        <v>58</v>
+      </c>
+      <c r="C178" s="12">
+        <v>0</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H178" s="13">
+        <v>-58</v>
+      </c>
+      <c r="I178">
+        <v>6.4702349256454599E-26</v>
+      </c>
+      <c r="J178" s="14">
+        <f>-Train!P177 * LN(I178) - (1-Train!P177) * LN(1-I178)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f>Train!A178</f>
+        <v>295</v>
+      </c>
+      <c r="B179" s="12">
+        <v>44</v>
+      </c>
+      <c r="C179" s="12">
+        <v>0</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H179" s="13">
+        <v>-44</v>
+      </c>
+      <c r="I179">
+        <v>7.7811322411337966E-20</v>
+      </c>
+      <c r="J179" s="14">
+        <f>-Train!P178 * LN(I179) - (1-Train!P178) * LN(1-I179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f>Train!A179</f>
+        <v>296</v>
+      </c>
+      <c r="B180" s="12">
+        <v>63</v>
+      </c>
+      <c r="C180" s="12">
+        <v>0</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H180" s="13">
+        <v>-63</v>
+      </c>
+      <c r="I180">
+        <v>4.3596100000630809E-28</v>
+      </c>
+      <c r="J180" s="14">
+        <f>-Train!P179 * LN(I180) - (1-Train!P179) * LN(1-I180)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f>Train!A180</f>
+        <v>297</v>
+      </c>
+      <c r="B181" s="12">
+        <v>63</v>
+      </c>
+      <c r="C181" s="12">
+        <v>0</v>
+      </c>
+      <c r="D181" s="12">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H181" s="13">
+        <v>-63</v>
+      </c>
+      <c r="I181">
+        <v>4.3596100000630809E-28</v>
+      </c>
+      <c r="J181" s="14">
+        <f>-Train!P180 * LN(I181) - (1-Train!P180) * LN(1-I181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f>Train!A181</f>
+        <v>300</v>
+      </c>
+      <c r="B182" s="12">
+        <v>45</v>
+      </c>
+      <c r="C182" s="12">
+        <v>0</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H182" s="13">
+        <v>-45</v>
+      </c>
+      <c r="I182">
+        <v>2.8625185805493937E-20</v>
+      </c>
+      <c r="J182" s="14">
+        <f>-Train!P181 * LN(I182) - (1-Train!P181) * LN(1-I182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f>Train!A182</f>
+        <v>301</v>
+      </c>
+      <c r="B183" s="12">
+        <v>68</v>
+      </c>
+      <c r="C183" s="12">
+        <v>0</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H183" s="13">
+        <v>-68</v>
+      </c>
+      <c r="I183">
+        <v>2.9374821117108028E-30</v>
+      </c>
+      <c r="J183" s="14">
+        <f>-Train!P182 * LN(I183) - (1-Train!P182) * LN(1-I183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f>Train!A183</f>
+        <v>302</v>
+      </c>
+      <c r="B184" s="12">
+        <v>57</v>
+      </c>
+      <c r="C184" s="12">
+        <v>0</v>
+      </c>
+      <c r="D184" s="12">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H184" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I184">
+        <v>1.7587922024243116E-25</v>
+      </c>
+      <c r="J184" s="14">
+        <f>-Train!P183 * LN(I184) - (1-Train!P183) * LN(1-I184)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>